--- a/BackTest/2020-01-14 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-14 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-871.7244257000003</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-346.9976257000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2724.664725699999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-4771.307925699999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-5475.817525699999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-5272.435825699999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-5272.435825699999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-5259.869125699999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-5296.108125699999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-5342.108125699999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-5341.528625699999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-5341.828625699999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-5301.234725699999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-5301.234725699999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-5191.790425699999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-5547.331125699999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-5700.273125699999</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-4885.509525699998</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-4885.509525699998</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-5418.474325699998</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-5418.474325699998</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-5418.474325699998</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-5632.792125699998</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-5753.736725699998</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-5753.736725699998</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-5701.635725699998</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-5701.635725699998</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-5701.635725699998</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-5701.635725699998</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-5701.635725699998</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-5701.635725699998</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-5701.635725699998</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-5701.635725699998</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-6328.648925699998</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-6328.648925699998</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-6368.773625699999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-6758.031025699999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-7170.631425699999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-7170.631425699999</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-6788.613825699999</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-6788.613825699999</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-6788.613825699999</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-6788.613825699999</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-7293.017825699999</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-7293.017825699999</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-7293.017825699999</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-7293.017825699999</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-7293.017825699999</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-7293.017825699999</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-7293.017825699999</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-7342.786825699999</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-7044.198425699999</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-7044.198425699999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-6855.995525699999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-6855.995525699999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-6971.617325699999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-6988.923325699999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-7006.202125699999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-7006.202125699999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-7006.202125699999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-7006.202125699999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-7036.114325699999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-6917.008525699998</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-6917.008525699998</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-6917.008525699998</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-7333.979425699999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-6839.486225699999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-6839.486225699999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-6839.486225699999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-6896.973225699999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-6896.973225699999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-6767.888425699999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-5903.456225699999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-5364.153225699999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-5471.137825699999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-5471.137825699999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-5665.708525699999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-5608.840225699999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-5585.748125699999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-6208.552425699999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-6208.552425699999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-6360.502225699999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-6301.702925699999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-6301.702925699999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-7078.6351257</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-7323.1307257</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-6635.0996257</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-6635.0996257</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-6635.0996257</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-6625.0277257</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-6960.230725699999</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-6958.215612349999</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-7052.844512349999</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-7052.844512349999</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-7052.844512349999</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-7052.844512349999</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-7052.844512349999</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-6568.554712349998</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-6568.554712349998</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-6563.442212349998</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-6666.656312349998</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-6666.656312349998</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-6666.656312349998</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-6666.656312349998</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-6666.656312349998</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-6868.799812349998</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-7686.432212349999</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-8759.11391235</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-8385.479712349999</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-8136.89761235</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-9299.182212349999</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-9299.182212349999</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-9046.665322449999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-8946.665322449999</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-8946.665322449999</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-8977.165322449999</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-8999.072922449999</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-8999.072922449999</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-8999.072922449999</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-9192.27992245</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-8992.27992245</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-8992.27992245</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-8992.27992245</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-8992.27992245</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-10494.70973457</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-10494.70973457</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-10041.45403457</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-10571.80013457</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-10907.66933457</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-10655.15243457</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-10562.92393457</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-10926.67813457</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-10802.70913457</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-10549.55253457</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-10759.71223457</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-10992.08913457</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-10991.01023457</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-10991.01023457</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-13996.48273457</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-13904.91183457</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-17174.11433457</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-16271.16383457</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-15514.57642605</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-14883.47152605</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-14883.47152605</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-13919.45272605</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-13874.86902605</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-14392.87182605</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-14200.10122605</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-17591.70902605</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-17591.70902605</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-17590.02739134</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-16716.95819134</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-16712.27219133999</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-17137.57329134</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-17137.57329134</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-18241.49719134</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-18174.26509134</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-17570.75259133999</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-17570.75259133999</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-17705.75259133999</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-17505.75259133999</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-18705.81689133999</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-18704.23959133999</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-18704.23959133999</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-18804.23959133999</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-18804.23959133999</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-18804.23959133999</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-20804.23959133999</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-20804.23959133999</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-20804.23959133999</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-23979.68459133999</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-23860.01759133999</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-21228.44059133999</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-23478.36449133999</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-24401.57559133999</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-24547.54979133999</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-27212.13979133999</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-28542.54629133999</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-26041.54629133999</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-26058.64629133999</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-30412.56659133999</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-30412.56659133999</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-30412.56659133999</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-28538.87529133999</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-27263.10569133998</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-25588.17649133999</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-25538.17649133999</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-26742.14269133998</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-27027.04229133999</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-27401.05139133998</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-27738.03189133999</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-27683.88569133999</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-27735.48569133999</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-23150.19069133998</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-23387.78669133998</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-24387.28669133998</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-25388.78679133999</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-24938.65984312999</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-25729.06474312999</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-25673.07484312999</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-25860.32784312999</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-25860.32784312999</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-26706.05914312999</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-34593.67744312999</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-34593.67744312999</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-33509.50004312999</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-34509.50004312999</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -13585,11 +13585,17 @@
         <v>-573247.59323483</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>1927</v>
+      </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13618,11 +13624,17 @@
         <v>-573047.59323483</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>1927</v>
+      </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13651,11 +13663,17 @@
         <v>-573047.59323483</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>1928</v>
+      </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +13702,17 @@
         <v>-573500.16373483</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>1928</v>
+      </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13721,7 +13745,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13754,7 +13782,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13787,7 +13819,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13820,7 +13856,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13853,7 +13893,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13882,11 +13926,17 @@
         <v>-571980.36493483</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>1927</v>
+      </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13915,11 +13965,17 @@
         <v>-572010.57503483</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>1929</v>
+      </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13948,11 +14004,17 @@
         <v>-570409.59743483</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>1925</v>
+      </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13981,11 +14043,17 @@
         <v>-570917.45743483</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>1930</v>
+      </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14014,11 +14082,17 @@
         <v>-570921.04063483</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>1929</v>
+      </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14047,11 +14121,17 @@
         <v>-570921.04063483</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>1925</v>
+      </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14080,11 +14160,17 @@
         <v>-546525.93503483</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>1925</v>
+      </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14113,11 +14199,17 @@
         <v>-547881.47033483</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>1927</v>
+      </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14146,11 +14238,17 @@
         <v>-547879.47033483</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>1924</v>
+      </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14179,11 +14277,17 @@
         <v>-547879.47033483</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>1927</v>
+      </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14212,11 +14316,17 @@
         <v>-547879.47033483</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>1927</v>
+      </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14245,11 +14355,17 @@
         <v>-547596.61823483</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>1927</v>
+      </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14278,11 +14394,17 @@
         <v>-547680.11313483</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>1928</v>
+      </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14311,11 +14433,17 @@
         <v>-547417.9388348301</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>1925</v>
+      </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14344,11 +14472,17 @@
         <v>-546906.89143483</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>1929</v>
+      </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14377,11 +14511,17 @@
         <v>-546906.89143483</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>1930</v>
+      </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14410,11 +14550,17 @@
         <v>-546913.88623483</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>1930</v>
+      </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14443,11 +14589,17 @@
         <v>-546913.88623483</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>1929</v>
+      </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14480,7 +14632,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14513,7 +14669,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14542,11 +14702,17 @@
         <v>-546895.84603483</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>1930</v>
+      </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14579,7 +14745,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14612,7 +14782,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14645,7 +14819,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14678,7 +14856,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14711,7 +14893,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14744,7 +14930,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14777,7 +14967,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14810,7 +15004,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14843,7 +15041,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14876,7 +15078,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14909,7 +15115,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14942,7 +15152,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14975,7 +15189,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15008,7 +15226,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15041,7 +15263,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15070,11 +15296,17 @@
         <v>-541711.9469120399</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>1930</v>
+      </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15103,11 +15335,17 @@
         <v>-541711.9469120399</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>1925</v>
+      </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15136,11 +15374,17 @@
         <v>-541902.4133120399</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>1925</v>
+      </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15169,11 +15413,17 @@
         <v>-543749.1621120399</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>1923</v>
+      </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15202,11 +15452,17 @@
         <v>-543684.1621120399</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>1921</v>
+      </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15235,11 +15491,17 @@
         <v>-543740.1824120398</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>1925</v>
+      </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15268,11 +15530,17 @@
         <v>-549606.0433120398</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>1922</v>
+      </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15301,11 +15569,17 @@
         <v>-549781.3396120399</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>1920</v>
+      </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15334,11 +15608,17 @@
         <v>-549267.3396120399</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>1917</v>
+      </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15367,11 +15647,17 @@
         <v>-549267.3396120399</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>1920</v>
+      </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15400,11 +15686,17 @@
         <v>-549267.3396120399</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>1920</v>
+      </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15433,11 +15725,17 @@
         <v>-549376.9131120399</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>1920</v>
+      </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15466,7 +15764,7 @@
         <v>-549602.2457120399</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I457" t="n">
         <v>1918</v>
@@ -15474,7 +15772,7 @@
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L457" t="n">
@@ -15505,7 +15803,7 @@
         <v>-549214.2448120399</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I458" t="n">
         <v>1917</v>
@@ -15544,7 +15842,7 @@
         <v>-549212.2448120399</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I459" t="n">
         <v>1918</v>
@@ -15583,7 +15881,7 @@
         <v>-549342.5962120399</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I460" t="n">
         <v>1920</v>
@@ -15622,7 +15920,7 @@
         <v>-549342.5962120399</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I461" t="n">
         <v>1917</v>
@@ -15661,7 +15959,7 @@
         <v>-547248.1002120399</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I462" t="n">
         <v>1917</v>
@@ -15700,7 +15998,7 @@
         <v>-549205.6657120399</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I463" t="n">
         <v>1918</v>
@@ -15739,7 +16037,7 @@
         <v>-547021.8757120399</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I464" t="n">
         <v>1917</v>
@@ -15778,7 +16076,7 @@
         <v>-547021.8757120399</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I465" t="n">
         <v>1921</v>
@@ -15817,7 +16115,7 @@
         <v>-547461.4977120399</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I466" t="n">
         <v>1921</v>
@@ -15856,7 +16154,7 @@
         <v>-547460.4977120399</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I467" t="n">
         <v>1920</v>
@@ -15895,7 +16193,7 @@
         <v>-547681.5046120399</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I468" t="n">
         <v>1924</v>
@@ -15934,7 +16232,7 @@
         <v>-547267.4177120399</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I469" t="n">
         <v>1923</v>
@@ -15973,7 +16271,7 @@
         <v>-547281.7107120398</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I470" t="n">
         <v>1925</v>
@@ -16012,7 +16310,7 @@
         <v>-546385.2686120399</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I471" t="n">
         <v>1923</v>
@@ -16051,7 +16349,7 @@
         <v>-546117.8647120398</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I472" t="n">
         <v>1924</v>
@@ -16090,7 +16388,7 @@
         <v>-546173.5693120399</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I473" t="n">
         <v>1926</v>
@@ -16129,7 +16427,7 @@
         <v>-543644.0270120399</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I474" t="n">
         <v>1924</v>
@@ -16168,7 +16466,7 @@
         <v>-542698.8875120399</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I475" t="n">
         <v>1925</v>
@@ -16207,7 +16505,7 @@
         <v>-542698.8875120399</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I476" t="n">
         <v>1926</v>
@@ -16246,7 +16544,7 @@
         <v>-539513.7024120399</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I477" t="n">
         <v>1926</v>
@@ -16285,7 +16583,7 @@
         <v>-539513.7024120399</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I478" t="n">
         <v>1927</v>
@@ -16324,9 +16622,11 @@
         <v>-539513.7024120399</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>1927</v>
+      </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
@@ -16361,9 +16661,11 @@
         <v>-539513.7024120399</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>1927</v>
+      </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
@@ -16398,9 +16700,11 @@
         <v>-539678.9626120399</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>1927</v>
+      </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
@@ -16435,9 +16739,11 @@
         <v>-539678.9626120399</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>1926</v>
+      </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
@@ -16472,9 +16778,11 @@
         <v>-539678.9626120399</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>1926</v>
+      </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
@@ -16509,9 +16817,11 @@
         <v>-539678.9626120399</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>1926</v>
+      </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
@@ -16546,9 +16856,11 @@
         <v>-539181.0626120399</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>1926</v>
+      </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
@@ -16583,9 +16895,11 @@
         <v>-539181.0626120399</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>1927</v>
+      </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
@@ -16657,9 +16971,11 @@
         <v>-538976.2407120399</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>1927</v>
+      </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
@@ -16953,9 +17269,11 @@
         <v>-540287.6745810199</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>1926</v>
+      </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
@@ -16990,9 +17308,11 @@
         <v>-540287.6745810199</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>1926</v>
+      </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
@@ -17027,9 +17347,11 @@
         <v>-540287.6745810199</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>1926</v>
+      </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
@@ -17064,9 +17386,11 @@
         <v>-540216.3721810199</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>1926</v>
+      </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
@@ -17101,9 +17425,11 @@
         <v>-540235.5626810199</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>1930</v>
+      </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
@@ -17138,9 +17464,11 @@
         <v>-538143.2621810199</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>1927</v>
+      </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
@@ -17175,9 +17503,11 @@
         <v>-538800.0678810199</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>1930</v>
+      </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
@@ -17212,9 +17542,11 @@
         <v>-538798.8378810199</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>1926</v>
+      </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
@@ -17286,9 +17618,11 @@
         <v>-544528.3624810199</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>1927</v>
+      </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
@@ -17323,9 +17657,11 @@
         <v>-544528.3624810199</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>1926</v>
+      </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
@@ -17360,9 +17696,11 @@
         <v>-544528.3624810199</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>1926</v>
+      </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
@@ -17397,9 +17735,11 @@
         <v>-544528.3624810199</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>1926</v>
+      </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
@@ -17434,9 +17774,11 @@
         <v>-544528.3624810199</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>1926</v>
+      </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
@@ -17471,9 +17813,11 @@
         <v>-544528.3624810199</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>1926</v>
+      </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
@@ -17508,9 +17852,11 @@
         <v>-544527.38918102</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>1926</v>
+      </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
@@ -17545,9 +17891,11 @@
         <v>-544527.38918102</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>1930</v>
+      </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
@@ -17582,9 +17930,11 @@
         <v>-544689.50788102</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>1930</v>
+      </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
@@ -17619,9 +17969,11 @@
         <v>-544689.50788102</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>1926</v>
+      </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
@@ -17656,9 +18008,11 @@
         <v>-544689.50788102</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>1926</v>
+      </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
@@ -17693,9 +18047,11 @@
         <v>-546081.2838810199</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>1926</v>
+      </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
@@ -17730,9 +18086,11 @@
         <v>-545984.5205810199</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>1925</v>
+      </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
@@ -17767,9 +18125,11 @@
         <v>-545845.8968810199</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>1926</v>
+      </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
@@ -17804,9 +18164,11 @@
         <v>-539106.62788102</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>1928</v>
+      </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
@@ -17841,9 +18203,11 @@
         <v>-537183.52488102</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>1932</v>
+      </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
@@ -17878,9 +18242,11 @@
         <v>-537183.52488102</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>1933</v>
+      </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
@@ -17952,9 +18318,11 @@
         <v>-537183.52488102</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>1933</v>
+      </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
@@ -18026,9 +18394,11 @@
         <v>-537895.5678810199</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>1932</v>
+      </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
@@ -20801,9 +21171,11 @@
         <v>-547164.6165810198</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>1932</v>
+      </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
@@ -20875,9 +21247,11 @@
         <v>-547432.0216810198</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>1932</v>
+      </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
@@ -20912,9 +21286,11 @@
         <v>-547432.0216810198</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>1930</v>
+      </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
@@ -20949,9 +21325,11 @@
         <v>-547432.0216810198</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>1930</v>
+      </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
@@ -20986,9 +21364,11 @@
         <v>-547432.0216810198</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>1930</v>
+      </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
@@ -21023,9 +21403,11 @@
         <v>-547637.2216810198</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>1930</v>
+      </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
@@ -21060,9 +21442,11 @@
         <v>-548224.1940810197</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>1929</v>
+      </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
@@ -21097,9 +21481,11 @@
         <v>-548224.1940810197</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>1928</v>
+      </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
@@ -21134,9 +21520,11 @@
         <v>-548224.1940810197</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>1928</v>
+      </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
@@ -21171,9 +21559,11 @@
         <v>-548224.1940810197</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>1928</v>
+      </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
@@ -21208,9 +21598,11 @@
         <v>-548396.6390810197</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>1928</v>
+      </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
@@ -21245,9 +21637,11 @@
         <v>-548396.6390810197</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>1927</v>
+      </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
@@ -21282,9 +21676,11 @@
         <v>-547185.6750810196</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>1927</v>
+      </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
@@ -21319,9 +21715,11 @@
         <v>-547182.8135810196</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>1928</v>
+      </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
@@ -21356,9 +21754,11 @@
         <v>-547851.3624810197</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>1929</v>
+      </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
@@ -21393,9 +21793,11 @@
         <v>-547620.8900810197</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>1927</v>
+      </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
@@ -21430,9 +21832,11 @@
         <v>-547658.7890810197</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>1934</v>
+      </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
@@ -21467,9 +21871,11 @@
         <v>-548167.3869810198</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>1930</v>
+      </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
@@ -21504,9 +21910,11 @@
         <v>-546898.3642810198</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>1929</v>
+      </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
@@ -22910,9 +23318,11 @@
         <v>-548982.2972761097</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>1928</v>
+      </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
@@ -22947,9 +23357,11 @@
         <v>-548982.2972761097</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>1927</v>
+      </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
@@ -22984,9 +23396,11 @@
         <v>-548976.7360358097</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>1927</v>
+      </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
@@ -23206,9 +23620,11 @@
         <v>-550075.0157358097</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>1929</v>
+      </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
@@ -23243,9 +23659,11 @@
         <v>-550137.0253358097</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>1929</v>
+      </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
@@ -23280,9 +23698,11 @@
         <v>-549466.0244358097</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>1928</v>
+      </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
@@ -23465,9 +23885,11 @@
         <v>-548972.7021358097</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>1929</v>
+      </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
@@ -23502,9 +23924,11 @@
         <v>-549163.2874358097</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>1929</v>
+      </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
@@ -23539,9 +23963,11 @@
         <v>-549298.3071358097</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>1928</v>
+      </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
@@ -23576,9 +24002,11 @@
         <v>-549254.0527358097</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>1927</v>
+      </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
@@ -23613,9 +24041,11 @@
         <v>-551297.3609430497</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>1932</v>
+      </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
@@ -23761,9 +24191,11 @@
         <v>-551397.4919430497</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>1929</v>
+      </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
@@ -23798,9 +24230,11 @@
         <v>-551704.7969430498</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>1928</v>
+      </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
@@ -23872,9 +24306,11 @@
         <v>-551373.4595430498</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>1931</v>
+      </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
@@ -24649,9 +25085,11 @@
         <v>-557859.6927430497</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>1929</v>
+      </c>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
@@ -24686,9 +25124,11 @@
         <v>-558149.6927430497</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>1930</v>
+      </c>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
@@ -24723,9 +25163,11 @@
         <v>-557907.6927430497</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>1929</v>
+      </c>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
@@ -24797,9 +25239,11 @@
         <v>-557907.6927430497</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>1930</v>
+      </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
@@ -25093,9 +25537,11 @@
         <v>-559224.9908430497</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>1929</v>
+      </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
@@ -25130,9 +25576,11 @@
         <v>-559224.9908430497</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>1929</v>
+      </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
@@ -25145,6 +25593,6 @@
       <c r="M717" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-14 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1243,7 +1243,7 @@
         <v>-2724.664725699999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-4771.307925699999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-5475.817525699999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-5272.435825699999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-5272.435825699999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-5259.869125699999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-5296.108125699999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-5342.108125699999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-5341.528625699999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-5341.828625699999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-5301.234725699999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-5301.234725699999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-5191.790425699999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-5547.331125699999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-5700.273125699999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-4885.509525699998</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-4885.509525699998</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-5418.474325699998</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-5418.474325699998</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-5418.474325699998</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-5632.792125699998</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-5753.736725699998</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-5753.736725699998</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-5701.635725699998</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-5701.635725699998</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-5701.635725699998</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-5701.635725699998</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-5701.635725699998</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-6328.648925699998</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-6328.648925699998</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-6368.773625699999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-6758.031025699999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-7170.631425699999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-7170.631425699999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-6788.613825699999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-6788.613825699999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-6788.613825699999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-6788.613825699999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-7293.017825699999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-7293.017825699999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-7293.017825699999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-7293.017825699999</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-7293.017825699999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-7293.017825699999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-7293.017825699999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-7342.786825699999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-7044.198425699999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-7044.198425699999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-6855.995525699999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-6855.995525699999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-6971.617325699999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-6988.923325699999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-7006.202125699999</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-7006.202125699999</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-7006.202125699999</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-7006.202125699999</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-7036.114325699999</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-6917.008525699998</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-6917.008525699998</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-6917.008525699998</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-7333.979425699999</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-6839.486225699999</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-6839.486225699999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-6839.486225699999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-6896.973225699999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-6896.973225699999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-6767.888425699999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-5903.456225699999</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-5364.153225699999</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-5471.137825699999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-5471.137825699999</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-5665.708525699999</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-5608.840225699999</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-5585.748125699999</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-6208.552425699999</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-6208.552425699999</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-6360.502225699999</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-6301.702925699999</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-6301.702925699999</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-7078.6351257</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-6736.7122257</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-7220.8290257</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-7345.6351257</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-6635.0996257</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-7052.844512349999</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-7052.844512349999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-7052.844512349999</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-6666.656312349998</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-6666.656312349998</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-6666.656312349998</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-6666.656312349998</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-6868.799812349998</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-7686.432212349999</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-8759.11391235</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-8385.479712349999</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-8136.89761235</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-9847.259922449999</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-9577.292622449999</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-9577.292622449999</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-9772.85912245</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-10907.39982245</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-11052.09982245</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-11052.09982245</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-11052.09982245</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-10664.20792245</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-10943.31173457</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-10943.31173457</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-10943.31173457</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-10494.70973457</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-10494.70973457</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-10541.67983457</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-10792.71763457</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-10692.78383457</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-10041.45403457</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-10571.80013457</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-10907.66933457</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-10655.15243457</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-10562.92393457</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-10802.70913457</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-11218.01023457</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-11238.44063457</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-10983.44063457</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-13996.48273457</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-13904.91183457</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-17174.11433457</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-17174.11433457</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-16239.48683457</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-16239.48683457</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-16239.48683457</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-16239.48683457</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-15514.57642605</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-16716.95819134</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-16712.27219133999</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-17137.57329134</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-17137.57329134</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-17137.57329134</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-17417.57329134</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-18191.49719134</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-18241.49719134</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-18174.26509134</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-17570.75259133999</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-17570.75259133999</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-20804.23959133999</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-23478.36449133999</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-23478.36449133999</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-23478.36449133999</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-23478.36449133999</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-28264.57129133999</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-28542.54629133999</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-24805.64629133999</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-28120.60219133999</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-30412.56659133999</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-30412.56659133999</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-30412.56659133999</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-30412.56659133999</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-30412.56659133999</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-28538.87529133999</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-28538.87529133999</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-25755.37069133999</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-25755.37069133999</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-25259.28579133999</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-27545.52759133999</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-27263.10569133998</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-27263.10569133998</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-25588.17649133999</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-25538.17649133999</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-26742.14269133998</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-27027.04229133999</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-27401.05139133998</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-27738.03189133999</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-27683.88569133999</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-27735.48569133999</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-27209.55939133999</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-27209.55939133999</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-27209.55939133999</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-27209.55939133999</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-25549.48399133998</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-23150.19069133998</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-23150.19069133998</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-23387.78669133998</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-25860.32784312999</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-25860.32784312999</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-26706.05914312999</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-26706.05914312999</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-26606.75914312999</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-27005.35074312999</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-27143.64274312999</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-26976.84334312999</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-26999.81134312999</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-26977.45164312999</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-27575.21664312999</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-27575.21664312999</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-27575.21664312999</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-28661.22154312999</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-28661.22154312999</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-28661.22154312999</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-28661.22154312999</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-28611.24654312999</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-33513.50004312999</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-48656.87974312999</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-51436.65384312999</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13585,17 +13585,11 @@
         <v>-573247.59323483</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>1927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13624,17 +13618,11 @@
         <v>-573047.59323483</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>1927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13663,17 +13651,11 @@
         <v>-573047.59323483</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>1928</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13702,17 +13684,11 @@
         <v>-573500.16373483</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>1928</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13745,11 +13721,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13782,11 +13754,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13819,11 +13787,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13856,11 +13820,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13893,11 +13853,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13934,7 +13890,7 @@
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L409" t="n">
@@ -14355,11 +14311,9 @@
         <v>-547596.61823483</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>1927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
@@ -14433,11 +14387,9 @@
         <v>-547417.9388348301</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>1925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
@@ -14472,11 +14424,9 @@
         <v>-546906.89143483</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>1929</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
@@ -14511,11 +14461,9 @@
         <v>-546906.89143483</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>1930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
@@ -14550,11 +14498,9 @@
         <v>-546913.88623483</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>1930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
@@ -14589,11 +14535,9 @@
         <v>-546913.88623483</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>1929</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
@@ -14702,11 +14646,9 @@
         <v>-546895.84603483</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>1930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
@@ -15296,11 +15238,9 @@
         <v>-541711.9469120399</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>1930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
@@ -15335,11 +15275,9 @@
         <v>-541711.9469120399</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>1925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
@@ -15374,11 +15312,9 @@
         <v>-541902.4133120399</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>1925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
@@ -16700,11 +16636,9 @@
         <v>-539678.9626120399</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
-      </c>
-      <c r="I481" t="n">
-        <v>1927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
@@ -17269,11 +17203,9 @@
         <v>-540287.6745810199</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
-      </c>
-      <c r="I496" t="n">
-        <v>1926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
@@ -17308,11 +17240,9 @@
         <v>-540287.6745810199</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
-      </c>
-      <c r="I497" t="n">
-        <v>1926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
@@ -17347,11 +17277,9 @@
         <v>-540287.6745810199</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
-      </c>
-      <c r="I498" t="n">
-        <v>1926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
@@ -17386,11 +17314,9 @@
         <v>-540216.3721810199</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
-      </c>
-      <c r="I499" t="n">
-        <v>1926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
@@ -17425,11 +17351,9 @@
         <v>-540235.5626810199</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
-      </c>
-      <c r="I500" t="n">
-        <v>1930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
@@ -17464,11 +17388,9 @@
         <v>-538143.2621810199</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
-      </c>
-      <c r="I501" t="n">
-        <v>1927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
@@ -17503,11 +17425,9 @@
         <v>-538800.0678810199</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
-      </c>
-      <c r="I502" t="n">
-        <v>1930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
@@ -17542,11 +17462,9 @@
         <v>-538798.8378810199</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
-      </c>
-      <c r="I503" t="n">
-        <v>1926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
@@ -17618,11 +17536,9 @@
         <v>-544528.3624810199</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
-      </c>
-      <c r="I505" t="n">
-        <v>1927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
@@ -17657,11 +17573,9 @@
         <v>-544528.3624810199</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
-      </c>
-      <c r="I506" t="n">
-        <v>1926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
@@ -17696,11 +17610,9 @@
         <v>-544528.3624810199</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
-      </c>
-      <c r="I507" t="n">
-        <v>1926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
@@ -17735,11 +17647,9 @@
         <v>-544528.3624810199</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
-      </c>
-      <c r="I508" t="n">
-        <v>1926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
@@ -17774,11 +17684,9 @@
         <v>-544528.3624810199</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
-      </c>
-      <c r="I509" t="n">
-        <v>1926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
@@ -17813,11 +17721,9 @@
         <v>-544528.3624810199</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
-      </c>
-      <c r="I510" t="n">
-        <v>1926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
@@ -17852,11 +17758,9 @@
         <v>-544527.38918102</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
-      </c>
-      <c r="I511" t="n">
-        <v>1926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
@@ -17891,11 +17795,9 @@
         <v>-544527.38918102</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
-      </c>
-      <c r="I512" t="n">
-        <v>1930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
@@ -17930,11 +17832,9 @@
         <v>-544689.50788102</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
-      </c>
-      <c r="I513" t="n">
-        <v>1930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
@@ -17969,11 +17869,9 @@
         <v>-544689.50788102</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
-      </c>
-      <c r="I514" t="n">
-        <v>1926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
@@ -18008,11 +17906,9 @@
         <v>-544689.50788102</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
-      </c>
-      <c r="I515" t="n">
-        <v>1926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
@@ -18047,11 +17943,9 @@
         <v>-546081.2838810199</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
-      </c>
-      <c r="I516" t="n">
-        <v>1926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
@@ -18086,11 +17980,9 @@
         <v>-545984.5205810199</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
-      </c>
-      <c r="I517" t="n">
-        <v>1925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
@@ -18125,11 +18017,9 @@
         <v>-545845.8968810199</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
-      </c>
-      <c r="I518" t="n">
-        <v>1926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
@@ -18164,11 +18054,9 @@
         <v>-539106.62788102</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
-      </c>
-      <c r="I519" t="n">
-        <v>1928</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
@@ -18203,11 +18091,9 @@
         <v>-537183.52488102</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
-      </c>
-      <c r="I520" t="n">
-        <v>1932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
@@ -18242,11 +18128,9 @@
         <v>-537183.52488102</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
-      </c>
-      <c r="I521" t="n">
-        <v>1933</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
@@ -18318,11 +18202,9 @@
         <v>-537183.52488102</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
-      </c>
-      <c r="I523" t="n">
-        <v>1933</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
@@ -18394,11 +18276,9 @@
         <v>-537895.5678810199</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
-      </c>
-      <c r="I525" t="n">
-        <v>1932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
@@ -19617,18 +19497,16 @@
         <v>-539729.1700810198</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L558" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L558" t="inlineStr"/>
       <c r="M558" t="inlineStr"/>
     </row>
     <row r="559">
@@ -19654,15 +19532,11 @@
         <v>-539641.1920810197</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19691,15 +19565,11 @@
         <v>-541036.4902810197</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19728,15 +19598,11 @@
         <v>-540814.6750810198</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19769,11 +19635,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19802,15 +19664,11 @@
         <v>-547668.0100810197</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19843,11 +19701,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19880,11 +19734,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19917,11 +19767,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19954,11 +19800,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19991,11 +19833,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20028,11 +19866,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20065,11 +19899,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20102,11 +19932,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20139,11 +19965,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20176,11 +19998,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20213,11 +20031,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20250,11 +20064,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20287,11 +20097,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20324,11 +20130,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20361,11 +20163,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20398,11 +20196,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20435,11 +20229,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20472,11 +20262,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20509,11 +20295,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20546,11 +20328,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20583,11 +20361,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20620,11 +20394,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20657,11 +20427,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20694,11 +20460,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20731,11 +20493,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20768,11 +20526,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20805,11 +20559,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20842,11 +20592,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20879,11 +20625,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20916,11 +20658,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20953,11 +20691,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20990,11 +20724,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21027,11 +20757,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21064,11 +20790,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21101,11 +20823,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21138,11 +20856,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21171,17 +20885,11 @@
         <v>-547164.6165810198</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
-      </c>
-      <c r="I600" t="n">
-        <v>1932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21214,11 +20922,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21247,17 +20951,11 @@
         <v>-547432.0216810198</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
-      </c>
-      <c r="I602" t="n">
-        <v>1932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21291,12 +20989,10 @@
       <c r="I603" t="n">
         <v>1930</v>
       </c>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="n">
+        <v>1930</v>
+      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21330,10 +21026,12 @@
       <c r="I604" t="n">
         <v>1930</v>
       </c>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>1930</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L604" t="n">
@@ -21369,10 +21067,12 @@
       <c r="I605" t="n">
         <v>1930</v>
       </c>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>1930</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L605" t="n">
@@ -21408,12 +21108,10 @@
       <c r="I606" t="n">
         <v>1930</v>
       </c>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="n">
+        <v>1930</v>
+      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21447,10 +21145,12 @@
       <c r="I607" t="n">
         <v>1929</v>
       </c>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>1930</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L607" t="n">
@@ -21486,10 +21186,12 @@
       <c r="I608" t="n">
         <v>1928</v>
       </c>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>1930</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L608" t="n">
@@ -21525,12 +21227,10 @@
       <c r="I609" t="n">
         <v>1928</v>
       </c>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="n">
+        <v>1928</v>
+      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21564,10 +21264,12 @@
       <c r="I610" t="n">
         <v>1928</v>
       </c>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>1928</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L610" t="n">
@@ -21603,10 +21305,12 @@
       <c r="I611" t="n">
         <v>1928</v>
       </c>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>1928</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L611" t="n">
@@ -21642,12 +21346,10 @@
       <c r="I612" t="n">
         <v>1927</v>
       </c>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="n">
+        <v>1927</v>
+      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21681,10 +21383,12 @@
       <c r="I613" t="n">
         <v>1927</v>
       </c>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>1927</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L613" t="n">
@@ -21720,10 +21424,12 @@
       <c r="I614" t="n">
         <v>1928</v>
       </c>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>1927</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L614" t="n">
@@ -21759,10 +21465,12 @@
       <c r="I615" t="n">
         <v>1929</v>
       </c>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>1927</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L615" t="n">
@@ -21798,7 +21506,9 @@
       <c r="I616" t="n">
         <v>1927</v>
       </c>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>1927</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21837,7 +21547,9 @@
       <c r="I617" t="n">
         <v>1934</v>
       </c>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>1927</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21876,7 +21588,9 @@
       <c r="I618" t="n">
         <v>1930</v>
       </c>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>1927</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21915,7 +21629,9 @@
       <c r="I619" t="n">
         <v>1929</v>
       </c>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>1927</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21949,10 +21665,14 @@
         <v>-545127.8352810198</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>1935</v>
+      </c>
+      <c r="J620" t="n">
+        <v>1927</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21989,7 +21709,9 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>1927</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22023,10 +21745,14 @@
         <v>-545287.2533810198</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>1932</v>
+      </c>
+      <c r="J622" t="n">
+        <v>1927</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22063,7 +21789,9 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>1927</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22100,7 +21828,9 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>1927</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22137,7 +21867,9 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>1927</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22174,7 +21906,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>1927</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22211,7 +21945,9 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>1927</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22248,7 +21984,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>1927</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22285,7 +22023,9 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>1927</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22322,7 +22062,9 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>1927</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22359,7 +22101,9 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>1927</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22396,7 +22140,9 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>1927</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22433,7 +22179,9 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>1927</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22470,7 +22218,9 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>1927</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22507,7 +22257,9 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>1927</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22544,7 +22296,9 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>1927</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22581,7 +22335,9 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>1927</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22618,7 +22374,9 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>1927</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22655,7 +22413,9 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>1927</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22692,7 +22452,9 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>1927</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22729,7 +22491,9 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>1927</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22766,7 +22530,9 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>1927</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22803,7 +22569,9 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>1927</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22840,7 +22608,9 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>1927</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22877,7 +22647,9 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>1927</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22914,7 +22686,9 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>1927</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22951,7 +22725,9 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>1927</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22988,7 +22764,9 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>1927</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23025,7 +22803,9 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>1927</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23062,7 +22842,9 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>1927</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23099,7 +22881,9 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>1927</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23136,7 +22920,9 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>1927</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23173,7 +22959,9 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>1927</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23210,7 +22998,9 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>1927</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23247,7 +23037,9 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>1927</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23284,7 +23076,9 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>1927</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23318,12 +23112,12 @@
         <v>-548982.2972761097</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>1928</v>
-      </c>
-      <c r="J657" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>1927</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23357,12 +23151,12 @@
         <v>-548982.2972761097</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
+      <c r="J658" t="n">
         <v>1927</v>
       </c>
-      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23396,12 +23190,12 @@
         <v>-548976.7360358097</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
+      <c r="J659" t="n">
         <v>1927</v>
       </c>
-      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23438,7 +23232,9 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>1927</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23475,7 +23271,9 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>1927</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23512,7 +23310,9 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>1927</v>
+      </c>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23549,7 +23349,9 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>1927</v>
+      </c>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23586,7 +23388,9 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>1927</v>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23620,12 +23424,12 @@
         <v>-550075.0157358097</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
-      </c>
-      <c r="I665" t="n">
-        <v>1929</v>
-      </c>
-      <c r="J665" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>1927</v>
+      </c>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23659,12 +23463,12 @@
         <v>-550137.0253358097</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
-      </c>
-      <c r="I666" t="n">
-        <v>1929</v>
-      </c>
-      <c r="J666" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>1927</v>
+      </c>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23698,12 +23502,12 @@
         <v>-549466.0244358097</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
-      </c>
-      <c r="I667" t="n">
-        <v>1928</v>
-      </c>
-      <c r="J667" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>1927</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23740,7 +23544,9 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>1927</v>
+      </c>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23777,7 +23583,9 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>1927</v>
+      </c>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23814,7 +23622,9 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>1927</v>
+      </c>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23851,7 +23661,9 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>1927</v>
+      </c>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23885,12 +23697,12 @@
         <v>-548972.7021358097</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
-      </c>
-      <c r="I672" t="n">
-        <v>1929</v>
-      </c>
-      <c r="J672" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>1927</v>
+      </c>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23924,12 +23736,12 @@
         <v>-549163.2874358097</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
-      </c>
-      <c r="I673" t="n">
-        <v>1929</v>
-      </c>
-      <c r="J673" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>1927</v>
+      </c>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23963,12 +23775,12 @@
         <v>-549298.3071358097</v>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
-      </c>
-      <c r="I674" t="n">
-        <v>1928</v>
-      </c>
-      <c r="J674" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>1927</v>
+      </c>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24002,12 +23814,12 @@
         <v>-549254.0527358097</v>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
-      </c>
-      <c r="I675" t="n">
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
+      <c r="J675" t="n">
         <v>1927</v>
       </c>
-      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24041,12 +23853,12 @@
         <v>-551297.3609430497</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
-      </c>
-      <c r="I676" t="n">
-        <v>1932</v>
-      </c>
-      <c r="J676" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>1927</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24083,7 +23895,9 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>1927</v>
+      </c>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24120,7 +23934,9 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>1927</v>
+      </c>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24157,7 +23973,9 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>1927</v>
+      </c>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24191,12 +24009,12 @@
         <v>-551397.4919430497</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
-      </c>
-      <c r="I680" t="n">
-        <v>1929</v>
-      </c>
-      <c r="J680" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>1927</v>
+      </c>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24230,12 +24048,12 @@
         <v>-551704.7969430498</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
-      </c>
-      <c r="I681" t="n">
-        <v>1928</v>
-      </c>
-      <c r="J681" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>1927</v>
+      </c>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24272,7 +24090,9 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>1927</v>
+      </c>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24306,12 +24126,12 @@
         <v>-551373.4595430498</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
-      </c>
-      <c r="I683" t="n">
-        <v>1931</v>
-      </c>
-      <c r="J683" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>1927</v>
+      </c>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24348,7 +24168,9 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>1927</v>
+      </c>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24385,7 +24207,9 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>1927</v>
+      </c>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24422,7 +24246,9 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>1927</v>
+      </c>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24459,7 +24285,9 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>1927</v>
+      </c>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24496,7 +24324,9 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>1927</v>
+      </c>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24533,7 +24363,9 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>1927</v>
+      </c>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24570,7 +24402,9 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>1927</v>
+      </c>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24607,7 +24441,9 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>1927</v>
+      </c>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24644,7 +24480,9 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>1927</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24681,7 +24519,9 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>1927</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24718,7 +24558,9 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>1927</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24755,7 +24597,9 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>1927</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24792,7 +24636,9 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>1927</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24829,7 +24675,9 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>1927</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24866,7 +24714,9 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>1927</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24903,7 +24753,9 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>1927</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24940,7 +24792,9 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>1927</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24977,7 +24831,9 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>1927</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25014,7 +24870,9 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>1927</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25051,7 +24909,9 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>1927</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25085,12 +24945,12 @@
         <v>-557859.6927430497</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
-      </c>
-      <c r="I704" t="n">
-        <v>1929</v>
-      </c>
-      <c r="J704" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>1927</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25124,12 +24984,12 @@
         <v>-558149.6927430497</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
-      </c>
-      <c r="I705" t="n">
-        <v>1930</v>
-      </c>
-      <c r="J705" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>1927</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25163,12 +25023,12 @@
         <v>-557907.6927430497</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
-      </c>
-      <c r="I706" t="n">
-        <v>1929</v>
-      </c>
-      <c r="J706" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>1927</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25205,7 +25065,9 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>1927</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25239,12 +25101,12 @@
         <v>-557907.6927430497</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
-      </c>
-      <c r="I708" t="n">
-        <v>1930</v>
-      </c>
-      <c r="J708" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>1927</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25281,7 +25143,9 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>1927</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25318,7 +25182,9 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>1927</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25355,7 +25221,9 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>1927</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25392,7 +25260,9 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>1927</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25429,7 +25299,9 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>1927</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25466,7 +25338,9 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>1927</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25503,7 +25377,9 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>1927</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25537,12 +25413,12 @@
         <v>-559224.9908430497</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
-      </c>
-      <c r="I716" t="n">
-        <v>1929</v>
-      </c>
-      <c r="J716" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>1927</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25576,12 +25452,12 @@
         <v>-559224.9908430497</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
-      </c>
-      <c r="I717" t="n">
-        <v>1929</v>
-      </c>
-      <c r="J717" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>1927</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25593,6 +25469,6 @@
       <c r="M717" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-14 BackTest QTUM.xlsx
@@ -451,7 +451,7 @@
         <v>-871.7244257000003</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-2807.5761257</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-2473.1469257</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2939.6819257</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-3046.2246257</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-3046.2246257</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-2196.2246257</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-2196.2246257</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-346.9976257000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1775.4608257</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-2936.0384257</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-3718.1878257</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-3309.2431257</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-4039.2878257</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-4160.4445257</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-4816.293725699999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-4664.837625699999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-3340.833125699999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-3340.833125699999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-3340.833125699999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-3258.433125699999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-2350.572625699999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-2389.693625699999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-2663.849425699999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2724.664725699999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-4004.064025699999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-4771.307925699999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-5475.817525699999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-5272.435825699999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-5272.435825699999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-5259.869125699999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-5296.108125699999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-5342.108125699999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-5341.528625699999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-5341.828625699999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-5301.234725699999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-5301.234725699999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-5547.331125699999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-5700.273125699999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-4885.509525699998</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-5418.474325699998</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-5418.474325699998</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-5418.474325699998</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-6736.7122257</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-7220.8290257</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-7345.6351257</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-7323.1307257</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-6635.0996257</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-6635.0996257</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-6625.0277257</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-6960.230725699999</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-6958.215612349999</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-7052.844512349999</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-7052.844512349999</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-7052.844512349999</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-6568.554712349998</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-6568.554712349998</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-6563.442212349998</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-6666.656312349998</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-6666.656312349998</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-6666.656312349998</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-6666.656312349998</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-6666.656312349998</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-6868.799812349998</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-7686.432212349999</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-8759.11391235</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-8385.479712349999</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-8136.89761235</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-9299.182212349999</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-9299.182212349999</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-9046.665322449999</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-8946.665322449999</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-8946.665322449999</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-8977.165322449999</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-8999.072922449999</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-8999.072922449999</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-8999.072922449999</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-9192.27992245</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-8992.27992245</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-8992.27992245</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-8992.27992245</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-8992.27992245</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-9847.259922449999</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-9577.292622449999</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-9577.292622449999</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-9772.85912245</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-10907.39982245</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-11052.09982245</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-11052.09982245</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-11052.09982245</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-10664.20792245</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-10943.31173457</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-10943.31173457</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-10943.31173457</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-10494.70973457</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-10494.70973457</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-10541.67983457</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-10792.71763457</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-10692.78383457</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-10926.67813457</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-10549.55253457</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-10759.71223457</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-10992.08913457</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-10991.01023457</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-10991.01023457</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-11218.01023457</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-11238.44063457</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-10983.44063457</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-13996.48273457</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-13904.91183457</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-17174.11433457</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-17174.11433457</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-16239.48683457</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-16239.48683457</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-16239.48683457</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-16239.48683457</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-16271.16383457</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-15514.57642605</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-15514.57642605</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-14883.47152605</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-14883.47152605</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-13919.45272605</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-13874.86902605</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-14392.87182605</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-14200.10122605</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-17591.70902605</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-17591.70902605</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-17590.02739134</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-17827.54659134</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-16716.95819134</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-16712.27219133999</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-17137.57329134</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-17137.57329134</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-17137.57329134</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-17417.57329134</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-18191.49719134</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-18241.49719134</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-18174.26509134</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-17570.75259133999</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-17570.75259133999</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-17705.75259133999</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-17505.75259133999</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-18705.81689133999</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-18704.23959133999</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-18704.23959133999</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-18804.23959133999</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-18804.23959133999</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-18804.23959133999</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-20804.23959133999</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-20804.23959133999</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-20804.23959133999</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-23979.68459133999</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-23860.01759133999</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-21228.44059133999</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-23478.36449133999</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-23478.36449133999</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-23478.36449133999</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-23478.36449133999</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-23478.36449133999</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-24401.57559133999</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-24547.54979133999</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-27212.13979133999</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-28264.57129133999</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-28542.54629133999</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-28542.54629133999</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-26041.54629133999</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-26058.64629133999</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-24805.64629133999</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-28120.60219133999</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-30412.56659133999</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-30412.56659133999</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-28538.87529133999</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-25755.37069133999</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-25755.37069133999</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-25259.28579133999</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-27545.52759133999</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-27263.10569133998</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-27263.10569133998</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-25588.17649133999</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-25538.17649133999</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-26742.14269133998</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-27027.04229133999</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-27401.05139133998</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-27738.03189133999</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-27683.88569133999</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-27735.48569133999</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-27209.55939133999</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-27209.55939133999</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-27209.55939133999</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-27209.55939133999</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-25549.48399133998</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-23150.19069133998</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-23150.19069133998</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-23387.78669133998</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-24387.28669133998</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-25388.78679133999</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-24938.65984312999</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-25729.06474312999</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-25673.07484312999</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-25860.32784312999</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-25860.32784312999</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-26706.05914312999</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-26706.05914312999</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-26606.75914312999</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-27005.35074312999</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-27143.64274312999</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-26976.84334312999</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-26999.81134312999</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-26977.45164312999</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-27575.21664312999</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-27575.21664312999</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-27575.21664312999</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-28661.22154312999</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-28661.22154312999</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-28661.22154312999</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-28661.22154312999</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-28611.24654312999</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-34593.67744312999</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-34593.67744312999</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-33513.50004312999</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-33509.50004312999</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-34509.50004312999</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-48656.87974312999</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-51436.65384312999</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13882,17 +13882,11 @@
         <v>-571980.36493483</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>1927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13921,17 +13915,11 @@
         <v>-572010.57503483</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>1929</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13960,17 +13948,11 @@
         <v>-570409.59743483</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>1925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13999,17 +13981,11 @@
         <v>-570917.45743483</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>1930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14038,17 +14014,11 @@
         <v>-570921.04063483</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>1929</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14077,17 +14047,11 @@
         <v>-570921.04063483</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>1925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14116,17 +14080,11 @@
         <v>-546525.93503483</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>1925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14155,17 +14113,11 @@
         <v>-547881.47033483</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>1927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14194,17 +14146,11 @@
         <v>-547879.47033483</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>1924</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14233,17 +14179,11 @@
         <v>-547879.47033483</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>1927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14272,17 +14212,11 @@
         <v>-547879.47033483</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>1927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14315,11 +14249,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14348,17 +14278,11 @@
         <v>-547680.11313483</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>1928</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14391,11 +14315,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14428,11 +14348,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14465,11 +14381,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14502,11 +14414,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14539,11 +14447,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14576,11 +14480,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14613,11 +14513,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14650,11 +14546,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14687,11 +14579,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14724,11 +14612,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14761,11 +14645,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14798,11 +14678,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14835,11 +14711,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14872,11 +14744,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14909,11 +14777,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14946,11 +14810,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14983,11 +14843,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15020,11 +14876,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15057,11 +14909,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15094,11 +14942,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15131,11 +14975,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15168,11 +15008,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15205,11 +15041,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15242,11 +15074,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15279,11 +15107,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15316,11 +15140,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15349,17 +15169,11 @@
         <v>-543749.1621120399</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>1923</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15388,17 +15202,11 @@
         <v>-543684.1621120399</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>1921</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15427,17 +15235,11 @@
         <v>-543740.1824120398</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>1925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15466,17 +15268,11 @@
         <v>-549606.0433120398</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>1922</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15510,12 +15306,10 @@
       <c r="I452" t="n">
         <v>1920</v>
       </c>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15549,10 +15343,12 @@
       <c r="I453" t="n">
         <v>1917</v>
       </c>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>1920</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L453" t="n">
@@ -15588,10 +15384,12 @@
       <c r="I454" t="n">
         <v>1920</v>
       </c>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>1920</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L454" t="n">
@@ -15627,12 +15425,10 @@
       <c r="I455" t="n">
         <v>1920</v>
       </c>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15666,10 +15462,12 @@
       <c r="I456" t="n">
         <v>1920</v>
       </c>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>1920</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L456" t="n">
@@ -15705,7 +15503,9 @@
       <c r="I457" t="n">
         <v>1918</v>
       </c>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>1920</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15744,7 +15544,9 @@
       <c r="I458" t="n">
         <v>1917</v>
       </c>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>1920</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15783,7 +15585,9 @@
       <c r="I459" t="n">
         <v>1918</v>
       </c>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>1920</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15822,7 +15626,9 @@
       <c r="I460" t="n">
         <v>1920</v>
       </c>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>1920</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15861,7 +15667,9 @@
       <c r="I461" t="n">
         <v>1917</v>
       </c>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>1920</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15900,7 +15708,9 @@
       <c r="I462" t="n">
         <v>1917</v>
       </c>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>1920</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15939,7 +15749,9 @@
       <c r="I463" t="n">
         <v>1918</v>
       </c>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>1920</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15978,7 +15790,9 @@
       <c r="I464" t="n">
         <v>1917</v>
       </c>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>1920</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16017,7 +15831,9 @@
       <c r="I465" t="n">
         <v>1921</v>
       </c>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>1920</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16056,7 +15872,9 @@
       <c r="I466" t="n">
         <v>1921</v>
       </c>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>1920</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16095,7 +15913,9 @@
       <c r="I467" t="n">
         <v>1920</v>
       </c>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>1920</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16134,7 +15954,9 @@
       <c r="I468" t="n">
         <v>1924</v>
       </c>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>1920</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16173,7 +15995,9 @@
       <c r="I469" t="n">
         <v>1923</v>
       </c>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>1920</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16212,7 +16036,9 @@
       <c r="I470" t="n">
         <v>1925</v>
       </c>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>1920</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16251,7 +16077,9 @@
       <c r="I471" t="n">
         <v>1923</v>
       </c>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>1920</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16290,7 +16118,9 @@
       <c r="I472" t="n">
         <v>1924</v>
       </c>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>1920</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16329,7 +16159,9 @@
       <c r="I473" t="n">
         <v>1926</v>
       </c>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>1920</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16368,7 +16200,9 @@
       <c r="I474" t="n">
         <v>1924</v>
       </c>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>1920</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16407,7 +16241,9 @@
       <c r="I475" t="n">
         <v>1925</v>
       </c>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>1920</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16446,7 +16282,9 @@
       <c r="I476" t="n">
         <v>1926</v>
       </c>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>1920</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16480,12 +16318,12 @@
         <v>-539513.7024120399</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>1926</v>
-      </c>
-      <c r="J477" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>1920</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16519,12 +16357,12 @@
         <v>-539513.7024120399</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>1927</v>
-      </c>
-      <c r="J478" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>1920</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16558,12 +16396,12 @@
         <v>-539513.7024120399</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>1927</v>
-      </c>
-      <c r="J479" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>1920</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16597,12 +16435,12 @@
         <v>-539513.7024120399</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>1927</v>
-      </c>
-      <c r="J480" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>1920</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16639,7 +16477,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>1920</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16673,12 +16513,12 @@
         <v>-539678.9626120399</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
-      </c>
-      <c r="I482" t="n">
-        <v>1926</v>
-      </c>
-      <c r="J482" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>1920</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16712,12 +16552,12 @@
         <v>-539678.9626120399</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
-      </c>
-      <c r="I483" t="n">
-        <v>1926</v>
-      </c>
-      <c r="J483" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>1920</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16751,12 +16591,12 @@
         <v>-539678.9626120399</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
-      </c>
-      <c r="I484" t="n">
-        <v>1926</v>
-      </c>
-      <c r="J484" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>1920</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16790,12 +16630,12 @@
         <v>-539181.0626120399</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
-      </c>
-      <c r="I485" t="n">
-        <v>1926</v>
-      </c>
-      <c r="J485" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>1920</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16829,12 +16669,12 @@
         <v>-539181.0626120399</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="n">
-        <v>1927</v>
-      </c>
-      <c r="J486" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>1920</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16871,7 +16711,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>1920</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16905,12 +16747,12 @@
         <v>-538976.2407120399</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" t="n">
-        <v>1927</v>
-      </c>
-      <c r="J488" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>1920</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16947,7 +16789,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>1920</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16984,7 +16828,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>1920</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17021,7 +16867,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>1920</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17058,7 +16906,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>1920</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17095,7 +16945,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>1920</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17132,7 +16984,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>1920</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17169,7 +17023,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>1920</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17206,7 +17062,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>1920</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17243,7 +17101,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>1920</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17280,7 +17140,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>1920</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17317,7 +17179,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>1920</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17354,7 +17218,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>1920</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17391,7 +17257,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>1920</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17428,7 +17296,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>1920</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17465,7 +17335,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>1920</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17502,7 +17374,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>1920</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17539,7 +17413,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>1920</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17576,7 +17452,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>1920</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17613,7 +17491,9 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>1920</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17650,7 +17530,9 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>1920</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17687,7 +17569,9 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>1920</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17724,7 +17608,9 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>1920</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17761,7 +17647,9 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>1920</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17798,7 +17686,9 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>1920</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17835,7 +17725,9 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>1920</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17872,7 +17764,9 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>1920</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17909,7 +17803,9 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>1920</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17946,7 +17842,9 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>1920</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17983,7 +17881,9 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>1920</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18020,7 +17920,9 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>1920</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18057,7 +17959,9 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>1920</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18094,7 +17998,9 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>1920</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18131,7 +18037,9 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>1920</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18168,7 +18076,9 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>1920</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18205,7 +18115,9 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>1920</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18242,7 +18154,9 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>1920</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18279,7 +18193,9 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>1920</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18316,7 +18232,9 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>1920</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18353,7 +18271,9 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>1920</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18390,7 +18310,9 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>1920</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18427,7 +18349,9 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>1920</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18464,7 +18388,9 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>1920</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18501,7 +18427,9 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>1920</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18538,7 +18466,9 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>1920</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18575,7 +18505,9 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>1920</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18612,7 +18544,9 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>1920</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18649,7 +18583,9 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>1920</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18686,7 +18622,9 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>1920</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18723,7 +18661,9 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>1920</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18760,7 +18700,9 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>1920</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18797,7 +18739,9 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>1920</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18834,7 +18778,9 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>1920</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18871,7 +18817,9 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>1920</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18908,7 +18856,9 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>1920</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18945,7 +18895,9 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>1920</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18982,7 +18934,9 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>1920</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19019,7 +18973,9 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>1920</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19056,7 +19012,9 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>1920</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19093,7 +19051,9 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>1920</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19130,7 +19090,9 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>1920</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19167,7 +19129,9 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>1920</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19204,7 +19168,9 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>1920</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19241,7 +19207,9 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>1920</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19278,7 +19246,9 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>1920</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19315,7 +19285,9 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>1920</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19352,7 +19324,9 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>1920</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19389,7 +19363,9 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>1920</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19426,7 +19402,9 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>1920</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19463,7 +19441,9 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>1920</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19497,16 +19477,20 @@
         <v>-539729.1700810198</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>1920</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L558" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L558" t="n">
+        <v>1</v>
+      </c>
       <c r="M558" t="inlineStr"/>
     </row>
     <row r="559">
@@ -19532,11 +19516,17 @@
         <v>-539641.1920810197</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19565,11 +19555,17 @@
         <v>-541036.4902810197</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19598,11 +19594,17 @@
         <v>-540814.6750810198</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19634,8 +19636,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19664,11 +19672,17 @@
         <v>-547668.0100810197</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19700,8 +19714,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19733,8 +19753,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19766,8 +19792,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19799,8 +19831,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19832,8 +19870,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19865,8 +19909,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19898,8 +19948,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19931,8 +19987,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19964,8 +20026,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19997,8 +20065,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20030,8 +20104,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20063,8 +20143,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20096,8 +20182,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20129,8 +20221,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20162,8 +20260,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20195,8 +20299,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20228,8 +20338,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20261,8 +20377,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20294,8 +20416,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20327,8 +20455,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20360,8 +20494,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20393,8 +20533,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20426,8 +20572,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20459,8 +20611,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20492,8 +20650,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20525,8 +20689,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20558,8 +20728,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20591,8 +20767,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20624,8 +20806,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20657,8 +20845,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20690,8 +20884,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20723,8 +20923,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20756,8 +20962,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20789,8 +21001,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20822,8 +21040,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20855,8 +21079,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20888,8 +21118,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20921,8 +21157,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20954,8 +21196,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20984,15 +21232,17 @@
         <v>-547432.0216810198</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
-      </c>
-      <c r="I603" t="n">
-        <v>1930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
       <c r="J603" t="n">
-        <v>1930</v>
-      </c>
-      <c r="K603" t="inlineStr"/>
+        <v>1920</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21021,17 +21271,15 @@
         <v>-547432.0216810198</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
-      </c>
-      <c r="I604" t="n">
-        <v>1930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
       <c r="J604" t="n">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L604" t="n">
@@ -21062,17 +21310,15 @@
         <v>-547432.0216810198</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
-      </c>
-      <c r="I605" t="n">
-        <v>1930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
       <c r="J605" t="n">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L605" t="n">
@@ -21103,15 +21349,17 @@
         <v>-547637.2216810198</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
-      </c>
-      <c r="I606" t="n">
-        <v>1930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
       <c r="J606" t="n">
-        <v>1930</v>
-      </c>
-      <c r="K606" t="inlineStr"/>
+        <v>1920</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21140,17 +21388,15 @@
         <v>-548224.1940810197</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
-      </c>
-      <c r="I607" t="n">
-        <v>1929</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
       <c r="J607" t="n">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L607" t="n">
@@ -21181,17 +21427,15 @@
         <v>-548224.1940810197</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
-      </c>
-      <c r="I608" t="n">
-        <v>1928</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
       <c r="J608" t="n">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L608" t="n">
@@ -21222,15 +21466,17 @@
         <v>-548224.1940810197</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
-      </c>
-      <c r="I609" t="n">
-        <v>1928</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
       <c r="J609" t="n">
-        <v>1928</v>
-      </c>
-      <c r="K609" t="inlineStr"/>
+        <v>1920</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21259,17 +21505,15 @@
         <v>-548224.1940810197</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
-      </c>
-      <c r="I610" t="n">
-        <v>1928</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
       <c r="J610" t="n">
-        <v>1928</v>
+        <v>1920</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L610" t="n">
@@ -21300,17 +21544,15 @@
         <v>-548396.6390810197</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
-      </c>
-      <c r="I611" t="n">
-        <v>1928</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
       <c r="J611" t="n">
-        <v>1928</v>
+        <v>1920</v>
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L611" t="n">
@@ -21341,15 +21583,17 @@
         <v>-548396.6390810197</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
-      </c>
-      <c r="I612" t="n">
-        <v>1927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
       <c r="J612" t="n">
-        <v>1927</v>
-      </c>
-      <c r="K612" t="inlineStr"/>
+        <v>1920</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21378,17 +21622,15 @@
         <v>-547185.6750810196</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
-      </c>
-      <c r="I613" t="n">
-        <v>1927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
       <c r="J613" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L613" t="n">
@@ -21419,17 +21661,15 @@
         <v>-547182.8135810196</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
-      </c>
-      <c r="I614" t="n">
-        <v>1928</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
       <c r="J614" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L614" t="n">
@@ -21460,17 +21700,15 @@
         <v>-547851.3624810197</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
-      </c>
-      <c r="I615" t="n">
-        <v>1929</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
       <c r="J615" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L615" t="n">
@@ -21501,13 +21739,11 @@
         <v>-547620.8900810197</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
-      </c>
-      <c r="I616" t="n">
-        <v>1927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
       <c r="J616" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K616" t="inlineStr">
         <is>
@@ -21542,13 +21778,11 @@
         <v>-547658.7890810197</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
-      </c>
-      <c r="I617" t="n">
-        <v>1934</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
       <c r="J617" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K617" t="inlineStr">
         <is>
@@ -21583,13 +21817,11 @@
         <v>-548167.3869810198</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
-      </c>
-      <c r="I618" t="n">
-        <v>1930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
       <c r="J618" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K618" t="inlineStr">
         <is>
@@ -21624,13 +21856,11 @@
         <v>-546898.3642810198</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
-      </c>
-      <c r="I619" t="n">
-        <v>1929</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
       <c r="J619" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K619" t="inlineStr">
         <is>
@@ -21665,13 +21895,11 @@
         <v>-545127.8352810198</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
-      </c>
-      <c r="I620" t="n">
-        <v>1935</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
       <c r="J620" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K620" t="inlineStr">
         <is>
@@ -21710,7 +21938,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -21745,13 +21973,11 @@
         <v>-545287.2533810198</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
-      </c>
-      <c r="I622" t="n">
-        <v>1932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
       <c r="J622" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -21790,7 +22016,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -21829,7 +22055,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -21868,7 +22094,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -21907,7 +22133,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -21946,7 +22172,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -21985,7 +22211,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -22024,7 +22250,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -22063,7 +22289,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -22102,7 +22328,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -22141,7 +22367,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -22180,7 +22406,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -22219,7 +22445,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -22258,7 +22484,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -22297,7 +22523,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -22336,7 +22562,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -22375,7 +22601,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -22414,7 +22640,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -22453,7 +22679,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -22492,7 +22718,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -22531,7 +22757,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -22570,7 +22796,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -22609,7 +22835,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -22648,7 +22874,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -22687,7 +22913,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -22726,7 +22952,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -22765,7 +22991,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -22804,7 +23030,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -22843,7 +23069,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -22882,7 +23108,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -22921,7 +23147,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -22960,7 +23186,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -22999,7 +23225,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -23038,7 +23264,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -23077,7 +23303,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -23116,7 +23342,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -23155,7 +23381,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -23194,7 +23420,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -23233,7 +23459,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -23272,7 +23498,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -23311,7 +23537,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -23350,7 +23576,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -23389,7 +23615,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -23428,7 +23654,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -23467,7 +23693,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -23506,7 +23732,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -23545,7 +23771,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K668" t="inlineStr">
         <is>
@@ -23584,7 +23810,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -23623,7 +23849,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -23662,7 +23888,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K671" t="inlineStr">
         <is>
@@ -23701,7 +23927,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
@@ -23740,7 +23966,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K673" t="inlineStr">
         <is>
@@ -23779,7 +24005,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -23818,7 +24044,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
@@ -23857,7 +24083,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
@@ -23896,7 +24122,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
@@ -23935,7 +24161,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -23974,7 +24200,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -24013,7 +24239,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -24052,7 +24278,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -24091,7 +24317,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -24130,7 +24356,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -24169,7 +24395,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -24208,7 +24434,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -24247,7 +24473,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
@@ -24286,7 +24512,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
@@ -24325,7 +24551,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K688" t="inlineStr">
         <is>
@@ -24364,7 +24590,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -24403,7 +24629,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -24442,7 +24668,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K691" t="inlineStr">
         <is>
@@ -24481,7 +24707,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K692" t="inlineStr">
         <is>
@@ -24520,7 +24746,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
@@ -24559,7 +24785,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -24598,7 +24824,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -24637,7 +24863,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
@@ -24676,7 +24902,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
@@ -24715,7 +24941,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -24754,7 +24980,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -24793,7 +25019,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -24832,7 +25058,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -24871,7 +25097,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -24910,7 +25136,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -24949,7 +25175,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -24988,7 +25214,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
@@ -25027,7 +25253,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K706" t="inlineStr">
         <is>
@@ -25066,7 +25292,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
@@ -25105,7 +25331,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -25144,7 +25370,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
@@ -25183,7 +25409,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -25222,7 +25448,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K711" t="inlineStr">
         <is>
@@ -25261,7 +25487,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -25300,7 +25526,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -25339,7 +25565,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K714" t="inlineStr">
         <is>
@@ -25378,7 +25604,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K715" t="inlineStr">
         <is>
@@ -25417,7 +25643,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K716" t="inlineStr">
         <is>
@@ -25456,7 +25682,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="n">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
